--- a/opm_hero_property/heroes/107.xlsx
+++ b/opm_hero_property/heroes/107.xlsx
@@ -6543,7 +6543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS25"/>
+  <dimension ref="A1:AW25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6739,40 +6739,60 @@
       </c>
       <c r="AL1" t="inlineStr">
         <is>
+          <t>job_contact</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>attr_addition</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>pvp_addition</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
           <t>基础战力</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>装备战力</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>天赋战力</t>
         </is>
       </c>
-      <c r="AO1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>研究所战力</t>
         </is>
       </c>
-      <c r="AP1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>职阶战力</t>
         </is>
       </c>
-      <c r="AQ1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>机械核心战力</t>
         </is>
       </c>
-      <c r="AR1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>限制器战力</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>收集战力</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
         <is>
           <t>总战力</t>
         </is>
@@ -6812,7 +6832,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L2" t="n">
         <v>107</v>
@@ -6839,13 +6859,13 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5457297.2850377</v>
+        <v>6389960.1042857</v>
       </c>
       <c r="U2" t="n">
-        <v>949055.442395</v>
+        <v>1096244.820923</v>
       </c>
       <c r="V2" t="n">
-        <v>749356.6643037201</v>
+        <v>875308.8922797202</v>
       </c>
       <c r="W2" t="n">
         <v>4260</v>
@@ -6884,7 +6904,7 @@
         <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
@@ -6897,28 +6917,36 @@
         </is>
       </c>
       <c r="AL2" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="n">
         <v>11136255.524415</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AP2" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AQ2" t="n">
         <v>1989348.147962805</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AR2" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP2" t="n">
-        <v>2007105.4</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR2" t="n">
+      <c r="AS2" t="n">
+        <v>2897939.8419532</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1781660.4</v>
+      </c>
+      <c r="AU2" t="n">
         <v>602468.934931785</v>
       </c>
-      <c r="AS2" t="n">
-        <v>16330450.65730959</v>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>19002945.49926279</v>
       </c>
     </row>
     <row r="3">
@@ -6955,7 +6983,7 @@
         <v>10</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L3" t="n">
         <v>107</v>
@@ -6982,13 +7010,13 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>683479.8005116499</v>
+        <v>788512.9612076499</v>
       </c>
       <c r="U3" t="n">
-        <v>138653.957615</v>
+        <v>155229.372751</v>
       </c>
       <c r="V3" t="n">
-        <v>98467.24950116</v>
+        <v>112946.95542916</v>
       </c>
       <c r="W3" t="n">
         <v>4260</v>
@@ -7027,7 +7055,7 @@
         <v>10</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
@@ -7040,28 +7068,36 @@
         </is>
       </c>
       <c r="AL3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="n">
         <v>1261951.052755</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AP3" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AQ3" t="n">
         <v>226011.695616785</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AR3" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP3" t="n">
-        <v>480680.6</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
+      <c r="AS3" t="n">
+        <v>581570.6842203999</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>201771.75</v>
+      </c>
+      <c r="AU3" t="n">
         <v>70576.044315035</v>
       </c>
-      <c r="AS3" t="n">
-        <v>2222248.79268682</v>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>2524910.62690722</v>
       </c>
     </row>
     <row r="4">
@@ -7098,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
         <v>107</v>
@@ -7125,13 +7161,13 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>7594.2496</v>
+        <v>8085.2496</v>
       </c>
       <c r="U4" t="n">
-        <v>1555.3861</v>
+        <v>1632.3861</v>
       </c>
       <c r="V4" t="n">
-        <v>552.7916</v>
+        <v>618.7916</v>
       </c>
       <c r="W4" t="n">
         <v>562</v>
@@ -7170,25 +7206,21 @@
         <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="n">
         <v>18768.31539</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AP4" t="n">
         <v>4549.950000000001</v>
       </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ4" t="n">
         <v>0</v>
       </c>
@@ -7196,7 +7228,19 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>23318.26539</v>
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>1401.8</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>24720.06539</v>
       </c>
     </row>
     <row r="5">
@@ -7233,7 +7277,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
         <v>107</v>
@@ -7260,13 +7304,13 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>20378.7077</v>
+        <v>34816.7077</v>
       </c>
       <c r="U5" t="n">
-        <v>3876.9828</v>
+        <v>6154.9828</v>
       </c>
       <c r="V5" t="n">
-        <v>1682.206</v>
+        <v>3631.206</v>
       </c>
       <c r="W5" t="n">
         <v>673</v>
@@ -7305,25 +7349,21 @@
         <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="n">
         <v>47696.67352</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AP5" t="n">
         <v>11988.35</v>
       </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ5" t="n">
         <v>0</v>
       </c>
@@ -7331,7 +7371,19 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>59685.02352</v>
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>41362.95</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>101047.97352</v>
       </c>
     </row>
     <row r="6">
@@ -7368,7 +7420,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L6" t="n">
         <v>107</v>
@@ -7395,13 +7447,13 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>57412.6008</v>
+        <v>119310.6008</v>
       </c>
       <c r="U6" t="n">
-        <v>10067.925</v>
+        <v>19835.925</v>
       </c>
       <c r="V6" t="n">
-        <v>5373.482</v>
+        <v>13732.482</v>
       </c>
       <c r="W6" t="n">
         <v>1000</v>
@@ -7440,33 +7492,41 @@
         <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="n">
         <v>114218.0048</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AP6" t="n">
         <v>32846</v>
       </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="n">
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AS6" t="n">
         <v>9526.799999999999</v>
       </c>
-      <c r="AQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>162751.3048</v>
+      <c r="AT6" t="n">
+        <v>177361.45</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>340112.7548</v>
       </c>
     </row>
     <row r="7">
@@ -7503,7 +7563,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L7" t="n">
         <v>107</v>
@@ -7530,13 +7590,13 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>62858.16728224</v>
+        <v>124756.16728224</v>
       </c>
       <c r="U7" t="n">
-        <v>11667.13581</v>
+        <v>21435.13581</v>
       </c>
       <c r="V7" t="n">
-        <v>6348.3466834</v>
+        <v>14707.3466834</v>
       </c>
       <c r="W7" t="n">
         <v>1080</v>
@@ -7575,7 +7635,7 @@
         <v>1</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
@@ -7588,28 +7648,36 @@
         </is>
       </c>
       <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="n">
         <v>114218.0048</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AP7" t="n">
         <v>32846</v>
       </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="n">
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AS7" t="n">
         <v>9709.799999999999</v>
       </c>
-      <c r="AQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR7" t="n">
+      <c r="AT7" t="n">
+        <v>177361.45</v>
+      </c>
+      <c r="AU7" t="n">
         <v>22085.59300079</v>
       </c>
-      <c r="AS7" t="n">
-        <v>185019.89780079</v>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>362381.34780079</v>
       </c>
     </row>
     <row r="8">
@@ -7646,7 +7714,7 @@
         <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L8" t="n">
         <v>107</v>
@@ -7673,13 +7741,13 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>68509.31676848</v>
+        <v>130407.31676848</v>
       </c>
       <c r="U8" t="n">
-        <v>13317.438095</v>
+        <v>23085.438095</v>
       </c>
       <c r="V8" t="n">
-        <v>7343.2987768</v>
+        <v>15702.2987768</v>
       </c>
       <c r="W8" t="n">
         <v>1080</v>
@@ -7718,7 +7786,7 @@
         <v>2</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
@@ -7731,28 +7799,36 @@
         </is>
       </c>
       <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="n">
         <v>114218.0048</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AP8" t="n">
         <v>32846</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AQ8" t="n">
         <v>665.7167890000001</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AR8" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AS8" t="n">
         <v>9709.799999999999</v>
       </c>
-      <c r="AQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" t="n">
+      <c r="AT8" t="n">
+        <v>177361.45</v>
+      </c>
+      <c r="AU8" t="n">
         <v>44179.08600158</v>
       </c>
-      <c r="AS8" t="n">
-        <v>207779.10759058</v>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>385140.55759058</v>
       </c>
     </row>
     <row r="9">
@@ -7789,7 +7865,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L9" t="n">
         <v>107</v>
@@ -7816,31 +7892,31 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>245478.0002</v>
+        <v>429182.510202</v>
       </c>
       <c r="U9" t="n">
-        <v>40312.328</v>
+        <v>68443.98128000001</v>
       </c>
       <c r="V9" t="n">
-        <v>26173.2667</v>
+        <v>50027.931367</v>
       </c>
       <c r="W9" t="n">
-        <v>2540</v>
+        <v>2550</v>
       </c>
       <c r="X9" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="Y9" t="n">
         <v>15000</v>
       </c>
       <c r="Z9" t="n">
-        <v>2340</v>
+        <v>2350</v>
       </c>
       <c r="AA9" t="n">
-        <v>3600</v>
+        <v>3610</v>
       </c>
       <c r="AB9" t="n">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -7861,33 +7937,41 @@
         <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="n">
         <v>517718.9469250001</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AP9" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="n">
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP9" t="n">
-        <v>39338.4</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>0</v>
-      </c>
       <c r="AS9" t="n">
-        <v>686447.3469250001</v>
+        <v>44507.33946925</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>415580.7</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>94347.60000000005</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>1201544.58639425</v>
       </c>
     </row>
     <row r="10">
@@ -7924,7 +8008,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L10" t="n">
         <v>107</v>
@@ -7951,31 +8035,31 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>252274.23800156</v>
+        <v>493423.3254676242</v>
       </c>
       <c r="U10" t="n">
-        <v>42239.9050016</v>
+        <v>79626.50237973761</v>
       </c>
       <c r="V10" t="n">
-        <v>27318.28496029</v>
+        <v>57591.26272058122</v>
       </c>
       <c r="W10" t="n">
-        <v>2540</v>
+        <v>2550</v>
       </c>
       <c r="X10" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="Y10" t="n">
         <v>15000</v>
       </c>
       <c r="Z10" t="n">
-        <v>2340</v>
+        <v>2350</v>
       </c>
       <c r="AA10" t="n">
-        <v>3600</v>
+        <v>3610</v>
       </c>
       <c r="AB10" t="n">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -7996,7 +8080,7 @@
         <v>1</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
@@ -8009,28 +8093,40 @@
         </is>
       </c>
       <c r="AL10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO10" t="n">
         <v>517718.9469250001</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AP10" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AQ10" t="n">
         <v>2997.991261025</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AR10" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP10" t="n">
-        <v>39338.4</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR10" t="n">
+      <c r="AS10" t="n">
+        <v>44507.33946925</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>415580.7</v>
+      </c>
+      <c r="AU10" t="n">
         <v>23682.3828482425</v>
       </c>
-      <c r="AS10" t="n">
-        <v>713127.7210342676</v>
+      <c r="AV10" t="n">
+        <v>252556.5920276381</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>1386433.952531156</v>
       </c>
     </row>
     <row r="11">
@@ -8067,7 +8163,7 @@
         <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L11" t="n">
         <v>107</v>
@@ -8094,31 +8190,31 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>285097.7192138</v>
+        <v>591012.3493416845</v>
       </c>
       <c r="U11" t="n">
-        <v>51211.756784</v>
+        <v>97632.028826304</v>
       </c>
       <c r="V11" t="n">
-        <v>32538.47864912</v>
+        <v>70031.41989581016</v>
       </c>
       <c r="W11" t="n">
-        <v>2740</v>
+        <v>2750</v>
       </c>
       <c r="X11" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="Y11" t="n">
         <v>15000</v>
       </c>
       <c r="Z11" t="n">
-        <v>2340</v>
+        <v>2350</v>
       </c>
       <c r="AA11" t="n">
-        <v>3600</v>
+        <v>3610</v>
       </c>
       <c r="AB11" t="n">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -8139,7 +8235,7 @@
         <v>5</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
@@ -8152,28 +8248,40 @@
         </is>
       </c>
       <c r="AL11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO11" t="n">
         <v>517718.9469250001</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AP11" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AQ11" t="n">
         <v>33307.903871275</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AR11" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP11" t="n">
-        <v>39338.4</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR11" t="n">
+      <c r="AS11" t="n">
+        <v>44507.33946925</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>415580.7</v>
+      </c>
+      <c r="AU11" t="n">
         <v>118447.842459565</v>
       </c>
-      <c r="AS11" t="n">
-        <v>838203.09325584</v>
+      <c r="AV11" t="n">
+        <v>421169.2799190006</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>1680122.01264409</v>
       </c>
     </row>
     <row r="12">
@@ -8210,7 +8318,7 @@
         <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L12" t="n">
         <v>107</v>
@@ -8237,31 +8345,31 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>294490.2692238</v>
+        <v>682978.3255895417</v>
       </c>
       <c r="U12" t="n">
-        <v>53309.329744</v>
+        <v>109141.819667504</v>
       </c>
       <c r="V12" t="n">
-        <v>33601.80198412</v>
+        <v>81910.02225046705</v>
       </c>
       <c r="W12" t="n">
-        <v>2940</v>
+        <v>2960</v>
       </c>
       <c r="X12" t="n">
-        <v>720</v>
+        <v>740</v>
       </c>
       <c r="Y12" t="n">
         <v>15000</v>
       </c>
       <c r="Z12" t="n">
-        <v>2340</v>
+        <v>2360</v>
       </c>
       <c r="AA12" t="n">
-        <v>3600</v>
+        <v>3620</v>
       </c>
       <c r="AB12" t="n">
-        <v>1080</v>
+        <v>1160</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -8282,7 +8390,7 @@
         <v>5</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
@@ -8295,28 +8403,40 @@
         </is>
       </c>
       <c r="AL12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO12" t="n">
         <v>517718.9469250001</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AP12" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AQ12" t="n">
         <v>63617.816481525</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AR12" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP12" t="n">
-        <v>39338.4</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR12" t="n">
+      <c r="AS12" t="n">
+        <v>44507.33946925</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>415580.7</v>
+      </c>
+      <c r="AU12" t="n">
         <v>118447.842459565</v>
       </c>
-      <c r="AS12" t="n">
-        <v>868513.0058660901</v>
+      <c r="AV12" t="n">
+        <v>630994.8639001648</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>1920257.509235505</v>
       </c>
     </row>
     <row r="13">
@@ -8353,7 +8473,7 @@
         <v>10</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L13" t="n">
         <v>107</v>
@@ -8380,31 +8500,31 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>332514.2547359</v>
+        <v>817872.8307973958</v>
       </c>
       <c r="U13" t="n">
-        <v>63804.22660000001</v>
+        <v>132705.37335748</v>
       </c>
       <c r="V13" t="n">
-        <v>39763.85585292</v>
+        <v>99184.35438175664</v>
       </c>
       <c r="W13" t="n">
-        <v>3140</v>
+        <v>3190</v>
       </c>
       <c r="X13" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="Y13" t="n">
         <v>15000</v>
       </c>
       <c r="Z13" t="n">
-        <v>2340</v>
+        <v>2390</v>
       </c>
       <c r="AA13" t="n">
-        <v>3600</v>
+        <v>3650</v>
       </c>
       <c r="AB13" t="n">
-        <v>1080</v>
+        <v>1280</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -8425,7 +8545,7 @@
         <v>10</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
@@ -8438,28 +8558,40 @@
         </is>
       </c>
       <c r="AL13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO13" t="n">
         <v>517718.9469250001</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AP13" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AQ13" t="n">
         <v>93927.72909177502</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AR13" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP13" t="n">
-        <v>39338.4</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR13" t="n">
+      <c r="AS13" t="n">
+        <v>44507.33946925</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>415580.7</v>
+      </c>
+      <c r="AU13" t="n">
         <v>234338.513413415</v>
       </c>
-      <c r="AS13" t="n">
-        <v>1014713.58943019</v>
+      <c r="AV13" t="n">
+        <v>882294.7157596683</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>2317757.944659108</v>
       </c>
     </row>
     <row r="14">
@@ -8496,7 +8628,7 @@
         <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L14" t="n">
         <v>107</v>
@@ -8523,31 +8655,31 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>303882.8192338001</v>
+        <v>920608.6090391185</v>
       </c>
       <c r="U14" t="n">
-        <v>55406.90270400001</v>
+        <v>138979.897327616</v>
       </c>
       <c r="V14" t="n">
-        <v>34665.12531912</v>
+        <v>104308.5209457869</v>
       </c>
       <c r="W14" t="n">
-        <v>3060</v>
+        <v>3110</v>
       </c>
       <c r="X14" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="Y14" t="n">
         <v>15000</v>
       </c>
       <c r="Z14" t="n">
-        <v>2280</v>
+        <v>2330</v>
       </c>
       <c r="AA14" t="n">
-        <v>3600</v>
+        <v>3650</v>
       </c>
       <c r="AB14" t="n">
-        <v>1080</v>
+        <v>1280</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -8568,7 +8700,7 @@
         <v>5</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
@@ -8581,28 +8713,40 @@
         </is>
       </c>
       <c r="AL14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO14" t="n">
         <v>517718.9469250001</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AP14" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AQ14" t="n">
         <v>93927.72909177502</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AR14" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP14" t="n">
-        <v>39155.4</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR14" t="n">
+      <c r="AS14" t="n">
+        <v>44324.33946925</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>415580.7</v>
+      </c>
+      <c r="AU14" t="n">
         <v>118447.842459565</v>
       </c>
-      <c r="AS14" t="n">
-        <v>898639.9184763402</v>
+      <c r="AV14" t="n">
+        <v>1173679.338092353</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>2493068.896037944</v>
       </c>
     </row>
     <row r="15">
@@ -8639,7 +8783,7 @@
         <v>6</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L15" t="n">
         <v>107</v>
@@ -8666,31 +8810,31 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>448442.61057168</v>
+        <v>1465764.622072998</v>
       </c>
       <c r="U15" t="n">
-        <v>81154.84585427999</v>
+        <v>230632.7876576396</v>
       </c>
       <c r="V15" t="n">
-        <v>56884.14182036</v>
+        <v>176753.3482386395</v>
       </c>
       <c r="W15" t="n">
-        <v>3220</v>
+        <v>3320</v>
       </c>
       <c r="X15" t="n">
-        <v>720</v>
+        <v>820</v>
       </c>
       <c r="Y15" t="n">
         <v>15000</v>
       </c>
       <c r="Z15" t="n">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="AA15" t="n">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="AB15" t="n">
-        <v>1080</v>
+        <v>1480</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -8711,7 +8855,7 @@
         <v>6</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
@@ -8724,28 +8868,40 @@
         </is>
       </c>
       <c r="AL15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO15" t="n">
         <v>797230.9709099999</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AP15" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AQ15" t="n">
         <v>143594.41920717</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AR15" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP15" t="n">
-        <v>111894</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR15" t="n">
+      <c r="AS15" t="n">
+        <v>127822.1194182</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>760379.2</v>
+      </c>
+      <c r="AU15" t="n">
         <v>148777.322316112</v>
       </c>
-      <c r="AS15" t="n">
-        <v>1348985.862433282</v>
+      <c r="AV15" t="n">
+        <v>1962860.427431406</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>4088153.609282888</v>
       </c>
     </row>
     <row r="16">
@@ -8782,7 +8938,7 @@
         <v>7</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L16" t="n">
         <v>107</v>
@@ -8809,31 +8965,31 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>454563.2942289601</v>
+        <v>1499814.989396037</v>
       </c>
       <c r="U16" t="n">
-        <v>82950.75788635999</v>
+        <v>236813.782706275</v>
       </c>
       <c r="V16" t="n">
-        <v>57976.26061154</v>
+        <v>181129.6827976728</v>
       </c>
       <c r="W16" t="n">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="X16" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y16" t="n">
         <v>15000</v>
       </c>
       <c r="Z16" t="n">
-        <v>2460</v>
+        <v>2660</v>
       </c>
       <c r="AA16" t="n">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="AB16" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
@@ -8854,7 +9010,7 @@
         <v>7</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
@@ -8867,28 +9023,40 @@
         </is>
       </c>
       <c r="AL16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO16" t="n">
         <v>797230.9709099999</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AP16" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AQ16" t="n">
         <v>143594.41920717</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AR16" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP16" t="n">
-        <v>112077</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR16" t="n">
+      <c r="AS16" t="n">
+        <v>128005.1194182</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>760379.2</v>
+      </c>
+      <c r="AU16" t="n">
         <v>173569.482044029</v>
       </c>
-      <c r="AS16" t="n">
-        <v>1373961.022161199</v>
+      <c r="AV16" t="n">
+        <v>2041131.424576554</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>4191399.766155953</v>
       </c>
     </row>
     <row r="17">
@@ -8925,7 +9093,7 @@
         <v>8</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L17" t="n">
         <v>107</v>
@@ -8952,31 +9120,31 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1081333.2697249</v>
+        <v>2715833.253316549</v>
       </c>
       <c r="U17" t="n">
-        <v>195098.44176024</v>
+        <v>428744.1312023054</v>
       </c>
       <c r="V17" t="n">
-        <v>155904.335</v>
+        <v>351541.85512</v>
       </c>
       <c r="W17" t="n">
-        <v>3620</v>
+        <v>3820</v>
       </c>
       <c r="X17" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y17" t="n">
         <v>15000</v>
       </c>
       <c r="Z17" t="n">
-        <v>2700</v>
+        <v>2900</v>
       </c>
       <c r="AA17" t="n">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="AB17" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -8997,7 +9165,7 @@
         <v>8</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
@@ -9010,28 +9178,40 @@
         </is>
       </c>
       <c r="AL17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO17" t="n">
         <v>1826996.15334</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AP17" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AQ17" t="n">
         <v>326414.1490753801</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AR17" t="n">
         <v>155697.55</v>
       </c>
-      <c r="AP17" t="n">
-        <v>685015</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR17" t="n">
+      <c r="AS17" t="n">
+        <v>758061.8461336</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>1214907.55</v>
+      </c>
+      <c r="AU17" t="n">
         <v>229976.641705176</v>
       </c>
-      <c r="AS17" t="n">
-        <v>3338368.444120557</v>
+      <c r="AV17" t="n">
+        <v>3086016.585298299</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>7712339.425552456</v>
       </c>
     </row>
     <row r="18">
@@ -9068,7 +9248,7 @@
         <v>10</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L18" t="n">
         <v>107</v>
@@ -9095,31 +9275,31 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5457297.2850377</v>
+        <v>9598305.08222284</v>
       </c>
       <c r="U18" t="n">
-        <v>949055.442395</v>
+        <v>1494145.309791914</v>
       </c>
       <c r="V18" t="n">
-        <v>749356.6643037201</v>
+        <v>1201757.085568727</v>
       </c>
       <c r="W18" t="n">
-        <v>4260</v>
+        <v>4460</v>
       </c>
       <c r="X18" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>3180</v>
+        <v>3380</v>
       </c>
       <c r="AA18" t="n">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="AB18" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -9140,7 +9320,7 @@
         <v>10</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
@@ -9153,28 +9333,40 @@
         </is>
       </c>
       <c r="AL18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO18" t="n">
         <v>11136255.524415</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AP18" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AQ18" t="n">
         <v>1989348.147962805</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AR18" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP18" t="n">
-        <v>2007105.4</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR18" t="n">
+      <c r="AS18" t="n">
+        <v>2897939.8419532</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>1781660.4</v>
+      </c>
+      <c r="AU18" t="n">
         <v>602468.934931785</v>
       </c>
-      <c r="AS18" t="n">
-        <v>16330450.65730959</v>
+      <c r="AV18" t="n">
+        <v>7833335.462544435</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>26836280.96180723</v>
       </c>
     </row>
     <row r="19">
@@ -9211,7 +9403,7 @@
         <v>10</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L19" t="n">
         <v>107</v>
@@ -9238,31 +9430,31 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>8916189.9322512</v>
+        <v>16470414.4036979</v>
       </c>
       <c r="U19" t="n">
-        <v>1540155.2428566</v>
+        <v>2657679.579862855</v>
       </c>
       <c r="V19" t="n">
-        <v>1215082.22986222</v>
+        <v>2138347.304707909</v>
       </c>
       <c r="W19" t="n">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="X19" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y19" t="n">
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>3960</v>
+        <v>4160</v>
       </c>
       <c r="AA19" t="n">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="AB19" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -9283,7 +9475,7 @@
         <v>10</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
@@ -9296,28 +9488,40 @@
         </is>
       </c>
       <c r="AL19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>1,1,5000;2,1,5000;3,1,5000;4,1,5000;1,2,5000;2,2,5000;3,2,5000;4,2,5000;5,1,5000;5,2,5000</t>
+        </is>
+      </c>
+      <c r="AO19" t="n">
         <v>18071074.48476</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AP19" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AQ19" t="n">
         <v>3228368.35997772</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AR19" t="n">
         <v>1061573.2</v>
       </c>
-      <c r="AP19" t="n">
-        <v>3470479</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR19" t="n">
+      <c r="AS19" t="n">
+        <v>6181016.422714</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>1781660.4</v>
+      </c>
+      <c r="AU19" t="n">
         <v>602468.934931785</v>
       </c>
-      <c r="AS19" t="n">
-        <v>26548232.92966951</v>
+      <c r="AV19" t="n">
+        <v>16084118.75443857</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>47124549.50682207</v>
       </c>
     </row>
     <row r="20">
@@ -9354,7 +9558,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L20" t="n">
         <v>107</v>
@@ -9381,13 +9585,13 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>223699.54044388</v>
+        <v>230669.54044388</v>
       </c>
       <c r="U20" t="n">
-        <v>40245.95461114999</v>
+        <v>41345.95461114999</v>
       </c>
       <c r="V20" t="n">
-        <v>23681.76823064</v>
+        <v>24642.76823064</v>
       </c>
       <c r="W20" t="n">
         <v>1080</v>
@@ -9426,7 +9630,7 @@
         <v>1</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
@@ -9439,28 +9643,36 @@
         </is>
       </c>
       <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="n">
         <v>545759.71779</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AP20" t="n">
         <v>32846</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AQ20" t="n">
         <v>3191.73100233</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AR20" t="n">
         <v>14696.9</v>
       </c>
-      <c r="AP20" t="n">
+      <c r="AS20" t="n">
         <v>33359.8</v>
       </c>
-      <c r="AQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR20" t="n">
+      <c r="AT20" t="n">
+        <v>20085.75</v>
+      </c>
+      <c r="AU20" t="n">
         <v>12868.145794665</v>
       </c>
-      <c r="AS20" t="n">
-        <v>642722.294586995</v>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>662808.044586995</v>
       </c>
     </row>
     <row r="21">
@@ -9497,7 +9709,7 @@
         <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L21" t="n">
         <v>107</v>
@@ -9524,13 +9736,13 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>290555.08929272</v>
+        <v>304934.95682072</v>
       </c>
       <c r="U21" t="n">
-        <v>51374.1598805</v>
+        <v>53666.90493049999</v>
       </c>
       <c r="V21" t="n">
-        <v>32794.8300492</v>
+        <v>34727.0380572</v>
       </c>
       <c r="W21" t="n">
         <v>1610</v>
@@ -9569,7 +9781,7 @@
         <v>2</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
@@ -9582,28 +9794,36 @@
         </is>
       </c>
       <c r="AL21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="n">
         <v>647480.4419</v>
       </c>
-      <c r="AM21" t="n">
+      <c r="AP21" t="n">
         <v>49269</v>
       </c>
-      <c r="AN21" t="n">
+      <c r="AQ21" t="n">
         <v>41736.4791635</v>
       </c>
-      <c r="AO21" t="n">
+      <c r="AR21" t="n">
         <v>19028.1</v>
       </c>
-      <c r="AP21" t="n">
-        <v>66719.60000000001</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21" t="n">
+      <c r="AS21" t="n">
+        <v>73186.154419</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>34843.45</v>
+      </c>
+      <c r="AU21" t="n">
         <v>17115.69418757</v>
       </c>
-      <c r="AS21" t="n">
-        <v>841349.31525107</v>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>882659.31967007</v>
       </c>
     </row>
     <row r="22">
@@ -9640,7 +9860,7 @@
         <v>5</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L22" t="n">
         <v>107</v>
@@ -9667,31 +9887,31 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>405716.46609016</v>
+        <v>534586.4553943899</v>
       </c>
       <c r="U22" t="n">
-        <v>70467.62516961001</v>
+        <v>89111.65870010141</v>
       </c>
       <c r="V22" t="n">
-        <v>49039.99024437</v>
+        <v>64045.50077801309</v>
       </c>
       <c r="W22" t="n">
-        <v>2940</v>
+        <v>2990</v>
       </c>
       <c r="X22" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="Y22" t="n">
         <v>15000</v>
       </c>
       <c r="Z22" t="n">
-        <v>2340</v>
+        <v>2390</v>
       </c>
       <c r="AA22" t="n">
-        <v>3600</v>
+        <v>3650</v>
       </c>
       <c r="AB22" t="n">
-        <v>1080</v>
+        <v>1280</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -9712,7 +9932,7 @@
         <v>5</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
@@ -9725,28 +9945,40 @@
         </is>
       </c>
       <c r="AL22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO22" t="n">
         <v>820291.522945</v>
       </c>
-      <c r="AM22" t="n">
+      <c r="AP22" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN22" t="n">
+      <c r="AQ22" t="n">
         <v>100088.157751965</v>
       </c>
-      <c r="AO22" t="n">
+      <c r="AR22" t="n">
         <v>23382.7</v>
       </c>
-      <c r="AP22" t="n">
-        <v>96891.39999999999</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR22" t="n">
+      <c r="AS22" t="n">
+        <v>105086.06522945</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>47057.55</v>
+      </c>
+      <c r="AU22" t="n">
         <v>31978.2929686315</v>
       </c>
-      <c r="AS22" t="n">
-        <v>1186901.023665596</v>
+      <c r="AV22" t="n">
+        <v>289143.2910036183</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>1531296.529898665</v>
       </c>
     </row>
     <row r="23">
@@ -9783,7 +10015,7 @@
         <v>7</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L23" t="n">
         <v>107</v>
@@ -9810,31 +10042,31 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>466176.86907092</v>
+        <v>686417.0992296583</v>
       </c>
       <c r="U23" t="n">
-        <v>84011.14262895999</v>
+        <v>119771.0320522243</v>
       </c>
       <c r="V23" t="n">
-        <v>58686.75295294001</v>
+        <v>84954.81528058843</v>
       </c>
       <c r="W23" t="n">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="X23" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y23" t="n">
         <v>15000</v>
       </c>
       <c r="Z23" t="n">
-        <v>2460</v>
+        <v>2660</v>
       </c>
       <c r="AA23" t="n">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="AB23" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
@@ -9855,7 +10087,7 @@
         <v>7</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
@@ -9868,28 +10100,40 @@
         </is>
       </c>
       <c r="AL23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO23" t="n">
         <v>895636.659405</v>
       </c>
-      <c r="AM23" t="n">
+      <c r="AP23" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN23" t="n">
+      <c r="AQ23" t="n">
         <v>161084.762858535</v>
       </c>
-      <c r="AO23" t="n">
+      <c r="AR23" t="n">
         <v>30363.65</v>
       </c>
-      <c r="AP23" t="n">
-        <v>153419</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR23" t="n">
+      <c r="AS23" t="n">
+        <v>171315.2331881</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>86108.64999999999</v>
+      </c>
+      <c r="AU23" t="n">
         <v>42203.560426614</v>
       </c>
-      <c r="AS23" t="n">
-        <v>1396976.582690149</v>
+      <c r="AV23" t="n">
+        <v>516419.9423751404</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>2017401.408253389</v>
       </c>
     </row>
     <row r="24">
@@ -9926,7 +10170,7 @@
         <v>8</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L24" t="n">
         <v>107</v>
@@ -9953,31 +10197,31 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>537480.368638</v>
+        <v>863886.5863878679</v>
       </c>
       <c r="U24" t="n">
-        <v>101892.23219048</v>
+        <v>155568.6030587254</v>
       </c>
       <c r="V24" t="n">
-        <v>71778.20167795001</v>
+        <v>111855.5543335549</v>
       </c>
       <c r="W24" t="n">
-        <v>3620</v>
+        <v>3820</v>
       </c>
       <c r="X24" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y24" t="n">
         <v>15000</v>
       </c>
       <c r="Z24" t="n">
-        <v>2700</v>
+        <v>2900</v>
       </c>
       <c r="AA24" t="n">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="AB24" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
@@ -9998,7 +10242,7 @@
         <v>8</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
@@ -10011,28 +10255,40 @@
         </is>
       </c>
       <c r="AL24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO24" t="n">
         <v>1014575.384055</v>
       </c>
-      <c r="AM24" t="n">
+      <c r="AP24" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN24" t="n">
+      <c r="AQ24" t="n">
         <v>182136.075230685</v>
       </c>
-      <c r="AO24" t="n">
+      <c r="AR24" t="n">
         <v>43173.05</v>
       </c>
-      <c r="AP24" t="n">
-        <v>262506.2</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR24" t="n">
+      <c r="AS24" t="n">
+        <v>303056.2153622</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>137586</v>
+      </c>
+      <c r="AU24" t="n">
         <v>51007.7711148395</v>
       </c>
-      <c r="AS24" t="n">
-        <v>1667667.430400525</v>
+      <c r="AV24" t="n">
+        <v>751481.9391482892</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>2597285.384911014</v>
       </c>
     </row>
     <row r="25">
@@ -10069,7 +10325,7 @@
         <v>10</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L25" t="n">
         <v>107</v>
@@ -10096,31 +10352,31 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>683479.8005116499</v>
+        <v>1476954.518276983</v>
       </c>
       <c r="U25" t="n">
-        <v>138653.957615</v>
+        <v>266564.377589211</v>
       </c>
       <c r="V25" t="n">
-        <v>98467.24950116</v>
+        <v>195640.4326842779</v>
       </c>
       <c r="W25" t="n">
-        <v>4260</v>
+        <v>4460</v>
       </c>
       <c r="X25" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y25" t="n">
         <v>15000</v>
       </c>
       <c r="Z25" t="n">
-        <v>3180</v>
+        <v>3380</v>
       </c>
       <c r="AA25" t="n">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="AB25" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC25" t="n">
         <v>0</v>
@@ -10141,7 +10397,7 @@
         <v>10</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
@@ -10154,28 +10410,40 @@
         </is>
       </c>
       <c r="AL25" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO25" t="n">
         <v>1261951.052755</v>
       </c>
-      <c r="AM25" t="n">
+      <c r="AP25" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN25" t="n">
+      <c r="AQ25" t="n">
         <v>226011.695616785</v>
       </c>
-      <c r="AO25" t="n">
+      <c r="AR25" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP25" t="n">
-        <v>480680.6</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR25" t="n">
+      <c r="AS25" t="n">
+        <v>581570.6842203999</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>201771.75</v>
+      </c>
+      <c r="AU25" t="n">
         <v>70576.044315035</v>
       </c>
-      <c r="AS25" t="n">
-        <v>2222248.79268682</v>
+      <c r="AV25" t="n">
+        <v>1934540.584669917</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>4459451.211577136</v>
       </c>
     </row>
   </sheetData>
